--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$F$59</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="136">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -109,7 +112,7 @@
     <t>copy_value(LIFNR)</t>
   </si>
   <si>
-    <t>Same value as the Supplier field, based on the sample data.</t>
+    <t>Same value as the LIFNR, based on the sample data.</t>
   </si>
   <si>
     <t>STREET</t>
@@ -175,7 +178,8 @@
     <t>phone_by_country(COUNTRY)</t>
   </si>
   <si>
-    <t>Custom function that generates phone numbers using a Faker function, based on the country as a reference.</t>
+    <t>1.Custom function that generates phone numbers using a Faker function, based on the country as a reference.
+2. Based on a configurable probability, it may either generate a phone number or leave it as null.</t>
   </si>
   <si>
     <t>SMTP_ADDR</t>
@@ -187,7 +191,8 @@
     <t>email_from_name_company(NAME_FIRST,FIRST_NAME_P,LAST_NAME_P)</t>
   </si>
   <si>
-    <t>Custom function that generates a fake supplier company email based on the company name, and the person's first and last name. It creates a random username.</t>
+    <t>1. Custom function that generates a fake supplier company email based on the company name, and the person's first and last name. It creates a random username.
+2. Based on a configurable probability, it may either generate a fake email or leave it as null.</t>
   </si>
   <si>
     <t>S_ROLES</t>
@@ -196,52 +201,61 @@
     <t>foreign_key(S_SUPPL_GEN.LIFNR)</t>
   </si>
   <si>
+    <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_SUPPL_GEN table.</t>
+  </si>
+  <si>
+    <t>BP_ROLE</t>
+  </si>
+  <si>
+    <t>default("Supplier")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'Supplier'</t>
+  </si>
+  <si>
+    <t>S_SUPPL_ADDR</t>
+  </si>
+  <si>
+    <t>S_ADDR_USAGE</t>
+  </si>
+  <si>
+    <t>A Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_SUPPL_GEN table.</t>
+  </si>
+  <si>
+    <t>ADR_KIND</t>
+  </si>
+  <si>
+    <t>default("X")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'X'</t>
+  </si>
+  <si>
+    <t>S_LFA1_TEXT</t>
+  </si>
+  <si>
+    <t>TDSPRAS</t>
+  </si>
+  <si>
+    <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","LANGU_CORR",LIFNR)</t>
+  </si>
+  <si>
+    <t>S_SUPPL_COMPANY</t>
+  </si>
+  <si>
     <t>Custom function that simulates a foreign key (FK) relationship.</t>
   </si>
   <si>
-    <t>BP_ROLE</t>
-  </si>
-  <si>
-    <t>default("Supplier")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default 'Supplier'</t>
-  </si>
-  <si>
-    <t>S_SUPPL_ADDR</t>
-  </si>
-  <si>
-    <t>S_ADDR_USAGE</t>
-  </si>
-  <si>
-    <t>ADR_KIND</t>
-  </si>
-  <si>
-    <t>default("X")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default 'X'</t>
-  </si>
-  <si>
-    <t>S_LFA1_TEXT</t>
-  </si>
-  <si>
-    <t>TDSPRAS</t>
-  </si>
-  <si>
-    <t>S_SUPPL_COMPANY</t>
-  </si>
-  <si>
     <t>BUKRS</t>
   </si>
   <si>
-    <t>PENDING TO DEV.</t>
+    <t>Must align with the Company Country Location.</t>
   </si>
   <si>
     <t>AKONT</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>TBD. More details needed.</t>
   </si>
   <si>
     <t>ZTERM1</t>
@@ -253,18 +267,30 @@
     <t>S_SUPPL_WITH_TAX</t>
   </si>
   <si>
+    <t>get_company_code("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
     <t>S_SUPPL_PURCHASING</t>
   </si>
   <si>
     <t>EKORG</t>
   </si>
   <si>
+    <t>if Country ='US' then pass 'US01' and Country 'CA01' then pass 'CA01' else Blank</t>
+  </si>
+  <si>
     <t>WAERS</t>
   </si>
   <si>
+    <t>All USA vendor use 'USD' for all CAN vendor use 'CAD'</t>
+  </si>
+  <si>
     <t>ZTERM</t>
   </si>
   <si>
+    <t>NOTE: How is the Terms of Payment Key defined? The sample data includes a random value. I need more details.</t>
+  </si>
+  <si>
     <t>INCO1</t>
   </si>
   <si>
@@ -278,6 +304,9 @@
   </si>
   <si>
     <t xml:space="preserve">70    </t>
+  </si>
+  <si>
+    <t>NOTE: The Supplier ID field in the sample data comes empty — should I leave it as null?</t>
   </si>
   <si>
     <t>KALKS</t>
@@ -317,12 +346,68 @@
     <t>S_SUPPL_PARTNER</t>
   </si>
   <si>
+    <t>get_purchasing_org("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">According to the Vendor Mapping: if it's from the USA, then use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; if it's from Canada, use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CA01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
     <t>PARVW</t>
   </si>
   <si>
+    <t>NOTE: could we assign these values randomly — RS, WL, LF, BA?</t>
+  </si>
+  <si>
     <t>LIFN2</t>
   </si>
   <si>
+    <t>NOTE: The Inco.Location 1 field in the sample data comes empty — should I leave it as null?</t>
+  </si>
+  <si>
     <t>DEFPA</t>
   </si>
   <si>
@@ -347,12 +432,18 @@
     <t xml:space="preserve">18    </t>
   </si>
   <si>
+    <t>Custom function that generates a fake account number</t>
+  </si>
+  <si>
     <t>IBAN</t>
   </si>
   <si>
     <t xml:space="preserve">34    </t>
   </si>
   <si>
+    <t>Custom function that generates a fake IBAN number</t>
+  </si>
+  <si>
     <t>BKONT</t>
   </si>
   <si>
@@ -374,7 +465,13 @@
     <t>TAXTYPE</t>
   </si>
   <si>
+    <t>Note: the sample data includes two categories — "X" and NULL. Should we use them?</t>
+  </si>
+  <si>
     <t>TAXNUM</t>
+  </si>
+  <si>
+    <t>Custom functions that generate random fake tax numbers.</t>
   </si>
 </sst>
 </file>
@@ -382,7 +479,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,16 +493,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFffff00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -420,17 +528,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFc6c6c6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFc6c6c6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFc6c6c6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFc6c6c6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -746,15 +881,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="27.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="47.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="56.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="79.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="123.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,7 +909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" hidden="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,11 +925,11 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,11 +945,11 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -830,11 +965,11 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -850,11 +985,11 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -870,11 +1005,11 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,11 +1025,11 @@
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -910,11 +1045,11 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -930,11 +1065,11 @@
       <c r="E9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,11 +1085,11 @@
       <c r="E10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -970,11 +1105,11 @@
       <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,11 +1125,11 @@
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,11 +1145,11 @@
       <c r="E13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,11 +1165,11 @@
       <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1050,11 +1185,11 @@
       <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,11 +1205,11 @@
       <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
       <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1090,11 +1225,11 @@
       <c r="E17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
@@ -1110,11 +1245,11 @@
       <c r="E18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
       <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
@@ -1130,11 +1265,11 @@
       <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
       <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
@@ -1150,16 +1285,16 @@
       <c r="E20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="F20" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1168,15 +1303,15 @@
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="F21" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1190,16 +1325,16 @@
       <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1207,14 +1342,16 @@
       <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2" t="s">
+      <c r="E23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1228,16 +1365,16 @@
       <c r="E24" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="F24" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1246,16 +1383,16 @@
         <v>13</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
+      <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1264,16 +1401,16 @@
         <v>13</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="F26" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1282,16 +1419,16 @@
         <v>13</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="F27" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1300,13 +1437,13 @@
         <v>13</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="F28" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1320,16 +1457,16 @@
       <c r="E29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="F29" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1337,14 +1474,16 @@
       <c r="D30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="E30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1358,16 +1497,16 @@
       <c r="E31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="F31" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1376,16 +1515,16 @@
         <v>13</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="F32" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1394,16 +1533,16 @@
         <v>13</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="F33" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1412,54 +1551,54 @@
         <v>13</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="F34" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
+      <c r="A36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="F36" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1468,18 +1607,18 @@
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+        <v>97</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1488,58 +1627,58 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+        <v>97</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="F39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="F40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1548,35 +1687,35 @@
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+        <v>104</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -1590,16 +1729,16 @@
       <c r="E43" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -1607,15 +1746,19 @@
       <c r="D44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -1624,14 +1767,16 @@
         <v>13</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
+      <c r="F45" s="5" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1640,31 +1785,33 @@
         <v>13</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
+      <c r="F46" s="5" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F47" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="F47" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
@@ -1678,13 +1825,13 @@
       <c r="E48" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -1698,16 +1845,16 @@
       <c r="E49" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="F49" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -1716,78 +1863,88 @@
         <v>13</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="F50" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+      <c r="F51" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="F52" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+      <c r="F53" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="F54" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1796,14 +1953,16 @@
         <v>29</v>
       </c>
       <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+      <c r="F55" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -1812,14 +1971,16 @@
         <v>33</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="F56" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -1828,14 +1989,16 @@
         <v>9</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+      <c r="F57" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -1844,14 +2007,16 @@
         <v>13</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="F58" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -1860,7 +2025,9 @@
         <v>33</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="144">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -124,7 +124,7 @@
     <t>get_street()</t>
   </si>
   <si>
-    <t>Must align with Region and Country values.</t>
+    <t>Custom function that reads a JSON file containing a list of AddressSchemas. Each AddressSchema uses the street field as its unique reference value.</t>
   </si>
   <si>
     <t>POST_CODE1</t>
@@ -136,19 +136,25 @@
     <t>get_post_code1(STREET)</t>
   </si>
   <si>
+    <t>Custom function that reads a JSON file and uses the street field as a reference to retrieve the post code related to that street.</t>
+  </si>
+  <si>
     <t>CITY1</t>
   </si>
   <si>
     <t>get_city1(STREET)</t>
   </si>
   <si>
+    <t>Custom function that reads a JSON file and uses the street field as a reference to retrieve the post city related to that street.</t>
+  </si>
+  <si>
     <t>COUNTRY</t>
   </si>
   <si>
     <t>get_country(STREET)</t>
   </si>
   <si>
-    <t>Only values from the USA and Canada."</t>
+    <t>Custom function that reads a JSON file and uses the street field as a reference to retrieve the country related to that street.</t>
   </si>
   <si>
     <t>REGION</t>
@@ -157,16 +163,13 @@
     <t>get_region(STREET)</t>
   </si>
   <si>
-    <t>must align with Region and Country values.</t>
-  </si>
-  <si>
     <t>LANGU_CORR</t>
   </si>
   <si>
     <t>get_langu_corr(STREET)</t>
   </si>
   <si>
-    <t>Must align with Country values: 'EN' for USA, 'EN' and 'FR' for Canada.</t>
+    <t>Custom function that reads a JSON file and uses the street field as a reference to retrieve the language key related to that street.</t>
   </si>
   <si>
     <t>TELNR_LONG</t>
@@ -240,49 +243,58 @@
     <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","LANGU_CORR",LIFNR)</t>
   </si>
   <si>
+    <t>Custom function that uses the supplier’s language key as the value.</t>
+  </si>
+  <si>
     <t>S_SUPPL_COMPANY</t>
   </si>
   <si>
+    <t>BUKRS</t>
+  </si>
+  <si>
+    <t>get_company_code("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: All US Suppliers = 1704, All CA Suppliers = 2910</t>
+  </si>
+  <si>
+    <t>AKONT</t>
+  </si>
+  <si>
+    <t>I'm not sure what the expected values look like, and the field descriptions aren't very clear. Could you share a few sample values?</t>
+  </si>
+  <si>
+    <t>ZTERM1</t>
+  </si>
+  <si>
+    <t>ZWELS_01</t>
+  </si>
+  <si>
+    <t>S_SUPPL_WITH_TAX</t>
+  </si>
+  <si>
     <t>Custom function that simulates a foreign key (FK) relationship.</t>
   </si>
   <si>
-    <t>BUKRS</t>
-  </si>
-  <si>
-    <t>Must align with the Company Country Location.</t>
-  </si>
-  <si>
-    <t>AKONT</t>
-  </si>
-  <si>
-    <t>TBD. More details needed.</t>
-  </si>
-  <si>
-    <t>ZTERM1</t>
-  </si>
-  <si>
-    <t>ZWELS_01</t>
-  </si>
-  <si>
-    <t>S_SUPPL_WITH_TAX</t>
-  </si>
-  <si>
-    <t>get_company_code("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
-  </si>
-  <si>
     <t>S_SUPPL_PURCHASING</t>
   </si>
   <si>
     <t>EKORG</t>
   </si>
   <si>
-    <t>if Country ='US' then pass 'US01' and Country 'CA01' then pass 'CA01' else Blank</t>
+    <t>get_purchasing_org("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: if Country ='US' then pass 'US01' and Country 'CA01' then pass 'CA01' else Blank.</t>
   </si>
   <si>
     <t>WAERS</t>
   </si>
   <si>
-    <t>All USA vendor use 'USD' for all CAN vendor use 'CAD'</t>
+    <t>get_currency("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: All USA vendor use 'USD' for all CAN vendor use 'CAD'</t>
   </si>
   <si>
     <t>ZTERM</t>
@@ -333,106 +345,71 @@
     <t>BSTAE</t>
   </si>
   <si>
-    <t xml:space="preserve">default("001")
+    <t>default("1")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '001'</t>
+  </si>
+  <si>
+    <t>KZRET</t>
+  </si>
+  <si>
+    <t>S_SUPPL_PARTNER</t>
+  </si>
+  <si>
+    <t>Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: All US Suppliers = US01, All CA Suppliers = CA01</t>
+  </si>
+  <si>
+    <t>PARVW</t>
+  </si>
+  <si>
+    <t>NOTE: could we assign these values randomly — RS, WL, LF, BA?</t>
+  </si>
+  <si>
+    <t>LIFN2</t>
+  </si>
+  <si>
+    <t>NOTE: The Inco.Location 1 field in the sample data comes empty — should I leave it as null?</t>
+  </si>
+  <si>
+    <t>DEFPA</t>
+  </si>
+  <si>
+    <t>S_LFM1_TEXT</t>
+  </si>
+  <si>
+    <t>S_SUPP_BANK</t>
+  </si>
+  <si>
+    <t>BANKS</t>
+  </si>
+  <si>
+    <t>get_bank_country("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: Load Bank Country code as US for Banks located in USA and CA for banks located in Canada
 </t>
   </si>
   <si>
-    <t>According to Vendor Mapping: Use default '001'</t>
-  </si>
-  <si>
-    <t>KZRET</t>
-  </si>
-  <si>
-    <t>S_SUPPL_PARTNER</t>
-  </si>
-  <si>
-    <t>get_purchasing_org("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">According to the Vendor Mapping: if it's from the USA, then use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>US01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; if it's from Canada, use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CA01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>PARVW</t>
-  </si>
-  <si>
-    <t>NOTE: could we assign these values randomly — RS, WL, LF, BA?</t>
-  </si>
-  <si>
-    <t>LIFN2</t>
-  </si>
-  <si>
-    <t>NOTE: The Inco.Location 1 field in the sample data comes empty — should I leave it as null?</t>
-  </si>
-  <si>
-    <t>DEFPA</t>
-  </si>
-  <si>
-    <t>S_LFM1_TEXT</t>
-  </si>
-  <si>
-    <t>S_SUPP_BANK</t>
-  </si>
-  <si>
-    <t>BANKS</t>
-  </si>
-  <si>
     <t>BANKL</t>
   </si>
   <si>
     <t xml:space="preserve">15    </t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>BANKN</t>
   </si>
   <si>
     <t xml:space="preserve">18    </t>
   </si>
   <si>
-    <t>Custom function that generates a fake account number</t>
+    <t>get_account_number("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that generates a fake account number based on the Supplier's Country</t>
   </si>
   <si>
     <t>IBAN</t>
@@ -441,7 +418,10 @@
     <t xml:space="preserve">34    </t>
   </si>
   <si>
-    <t>Custom function that generates a fake IBAN number</t>
+    <t>get_iban_number("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that generates a fake IBAN number based on the Supplier's Country</t>
   </si>
   <si>
     <t>BKONT</t>
@@ -547,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -563,6 +543,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -881,12 +864,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="79.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="123.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="8" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="79.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="123.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
@@ -909,7 +892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,7 +912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,7 +932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -969,7 +952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,7 +972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +992,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1012,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1052,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1086,15 +1069,15 @@
         <v>38</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -1103,18 +1086,18 @@
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
@@ -1123,18 +1106,18 @@
         <v>13</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>8</v>
@@ -1143,18 +1126,18 @@
         <v>13</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>8</v>
@@ -1163,55 +1146,55 @@
         <v>13</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -1223,18 +1206,18 @@
         <v>13</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>8</v>
@@ -1243,15 +1226,15 @@
         <v>13</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>12</v>
@@ -1263,15 +1246,15 @@
         <v>13</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>12</v>
@@ -1283,18 +1266,18 @@
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1303,15 +1286,15 @@
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1323,18 +1306,18 @@
         <v>13</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1343,15 +1326,15 @@
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1363,18 +1346,18 @@
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
@@ -1382,17 +1365,19 @@
       <c r="D25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="F25" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1402,15 +1387,15 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1420,15 +1405,15 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1438,12 +1423,12 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+        <v>80</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1455,18 +1440,18 @@
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
+        <v>84</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1475,15 +1460,15 @@
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1495,18 +1480,18 @@
         <v>13</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
@@ -1514,17 +1499,19 @@
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1532,17 +1519,19 @@
       <c r="D33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="F33" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1552,15 +1541,15 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -1569,36 +1558,36 @@
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="5" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1607,18 +1596,18 @@
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>8</v>
@@ -1627,58 +1616,58 @@
         <v>13</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
       <c r="A41" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>8</v>
@@ -1687,35 +1676,35 @@
         <v>13</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
       <c r="A42" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+        <v>70</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -1727,18 +1716,18 @@
         <v>13</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+        <v>61</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -1747,18 +1736,18 @@
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
       <c r="A45" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -1768,15 +1757,15 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
+      <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1786,32 +1775,32 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+        <v>116</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
       <c r="A48" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
@@ -1823,15 +1812,15 @@
         <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
       <c r="A49" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -1843,18 +1832,18 @@
         <v>13</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -1862,89 +1851,97 @@
       <c r="D50" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="F50" s="4" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F51" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="F52" s="3" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="F53" s="3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1954,15 +1951,15 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -1972,15 +1969,15 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -1990,15 +1987,15 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -2007,16 +2004,16 @@
         <v>13</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="6" t="s">
-        <v>133</v>
+      <c r="F58" s="7" t="s">
+        <v>141</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2026,7 +2023,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="143">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -395,9 +395,6 @@
   </si>
   <si>
     <t xml:space="preserve">15    </t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>BANKN</t>
@@ -527,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -543,9 +540,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -864,15 +858,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="79.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="123.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="79.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="123.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,7 +906,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,7 +926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,7 +946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -972,7 +966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -992,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1026,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1052,7 +1046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,7 +1066,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1112,7 +1106,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1132,7 +1126,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1152,7 +1146,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="44.25">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1212,7 +1206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1272,7 +1266,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1292,7 +1286,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1312,7 +1306,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1332,7 +1326,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1346,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1372,7 +1366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1390,7 +1384,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
@@ -1426,7 +1420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
         <v>83</v>
       </c>
@@ -1446,7 +1440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="1" t="s">
         <v>83</v>
       </c>
@@ -1466,7 +1460,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
@@ -1486,7 +1480,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
         <v>85</v>
       </c>
@@ -1506,7 +1500,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="1" t="s">
         <v>85</v>
       </c>
@@ -1526,7 +1520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
         <v>85</v>
       </c>
@@ -1544,7 +1538,7 @@
         <v>93</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
         <v>85</v>
       </c>
@@ -1564,7 +1558,7 @@
         <v>96</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
         <v>85</v>
       </c>
@@ -1582,7 +1576,7 @@
         <v>99</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
         <v>85</v>
       </c>
@@ -1602,7 +1596,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="1" t="s">
         <v>85</v>
       </c>
@@ -1622,7 +1616,7 @@
         <v>102</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
@@ -1642,7 +1636,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="1" t="s">
         <v>85</v>
       </c>
@@ -1662,7 +1656,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="1" t="s">
         <v>85</v>
       </c>
@@ -1682,7 +1676,7 @@
         <v>109</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="1" t="s">
         <v>85</v>
       </c>
@@ -1702,7 +1696,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="1" t="s">
         <v>111</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="1" t="s">
         <v>111</v>
       </c>
@@ -1742,7 +1736,7 @@
         <v>112</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="1" t="s">
         <v>111</v>
       </c>
@@ -1760,7 +1754,7 @@
         <v>114</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="1" t="s">
         <v>111</v>
       </c>
@@ -1778,7 +1772,7 @@
         <v>116</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="1" t="s">
         <v>111</v>
       </c>
@@ -1798,7 +1792,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -1818,7 +1812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="1" t="s">
         <v>119</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="1" t="s">
         <v>119</v>
       </c>
@@ -1858,7 +1852,7 @@
         <v>122</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
@@ -1871,77 +1865,75 @@
       <c r="D51" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E51" s="6" t="s">
-        <v>125</v>
-      </c>
+      <c r="E51" s="2"/>
       <c r="F51" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="F52" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>135</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1954,12 +1946,12 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -1972,12 +1964,12 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -1990,30 +1982,30 @@
         <v>80</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="7" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+      <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
-      <c r="A59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2023,7 +2015,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$F$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">=Sheet1!$A$1:$F$59</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="158">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -40,12 +40,24 @@
     <t>S_SUPPL_GEN</t>
   </si>
   <si>
+    <t>LIFNR</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80    </t>
+  </si>
+  <si>
+    <t>generate_lifnr_yn01()</t>
+  </si>
+  <si>
+    <t>A custom function that generates random Supplier IDs based on the company name.</t>
+  </si>
+  <si>
     <t>NAME_FIRST</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t xml:space="preserve">40    </t>
   </si>
   <si>
@@ -55,64 +67,49 @@
     <t>A Faker company function generates random company names.</t>
   </si>
   <si>
-    <t>LIFNR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80    </t>
+    <t>BU_GROUP</t>
+  </si>
+  <si>
+    <t>default("YNO1")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'YN01'</t>
+  </si>
+  <si>
+    <t>KTOKK</t>
+  </si>
+  <si>
+    <t>default("SUPL")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'SUPL'</t>
+  </si>
+  <si>
+    <t>NAME_FIRST_P</t>
+  </si>
+  <si>
+    <t>optional_first_name()</t>
+  </si>
+  <si>
+    <t>A custom function that generates random first names. Based on a configurable probability, it may either generate a fake first name or leave it as null.</t>
+  </si>
+  <si>
+    <t>NAME_LAST_P</t>
+  </si>
+  <si>
+    <t>conditional_last_name(NAME_FIRST_P)</t>
+  </si>
+  <si>
+    <t>A custom function that generates random last names. It checks the first name: if it's null, the last name will also be null; otherwise, it generates a last name.</t>
+  </si>
+  <si>
+    <t>BPEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20    </t>
   </si>
   <si>
     <t>supplier_id_from_name(NAME_FIRST)</t>
-  </si>
-  <si>
-    <t>A custom function that generates random Supplier IDs based on the company name.</t>
-  </si>
-  <si>
-    <t>BU_GROUP</t>
-  </si>
-  <si>
-    <t>default("YNO1")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default 'YN01'</t>
-  </si>
-  <si>
-    <t>KTOKK</t>
-  </si>
-  <si>
-    <t>default("SUPL")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default 'SUPL'</t>
-  </si>
-  <si>
-    <t>NAME_FIRST_P</t>
-  </si>
-  <si>
-    <t>optional_first_name()</t>
-  </si>
-  <si>
-    <t>A custom function that generates random first names. Based on a configurable probability, it may either generate a fake first name or leave it as null.</t>
-  </si>
-  <si>
-    <t>NAME_LAST_P</t>
-  </si>
-  <si>
-    <t>conditional_last_name(FIRST_NAME_P)</t>
-  </si>
-  <si>
-    <t>A custom function that generates random last names. It checks the first name: if it's null, the last name will also be null; otherwise, it generates a last name.</t>
-  </si>
-  <si>
-    <t>BPEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20    </t>
-  </si>
-  <si>
-    <t>copy_value(LIFNR)</t>
-  </si>
-  <si>
-    <t>Same value as the LIFNR, based on the sample data.</t>
   </si>
   <si>
     <t>STREET</t>
@@ -201,7 +198,7 @@
     <t>S_ROLES</t>
   </si>
   <si>
-    <t>foreign_key(S_SUPPL_GEN.LIFNR)</t>
+    <t>foreign_key(S_SUPPL_GEN.LIFNR,1:N)</t>
   </si>
   <si>
     <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_SUPPL_GEN table.</t>
@@ -237,6 +234,9 @@
     <t>S_LFA1_TEXT</t>
   </si>
   <si>
+    <t>foreign_key(S_SUPPL_GEN.LIFNR,1:1)</t>
+  </si>
+  <si>
     <t>TDSPRAS</t>
   </si>
   <si>
@@ -261,15 +261,24 @@
     <t>AKONT</t>
   </si>
   <si>
-    <t>I'm not sure what the expected values look like, and the field descriptions aren't very clear. Could you share a few sample values?</t>
+    <t>get_reconciliation_account("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: If the vendors are US: 21100000, CA: 21300000</t>
   </si>
   <si>
     <t>ZTERM1</t>
   </si>
   <si>
+    <t>Pending additional details</t>
+  </si>
+  <si>
     <t>ZWELS_01</t>
   </si>
   <si>
+    <t>Input from Naveen: Pending Business Decision - For now we can leave it empty (It could be ACH or Check/Cheque)</t>
+  </si>
+  <si>
     <t>S_SUPPL_WITH_TAX</t>
   </si>
   <si>
@@ -300,9 +309,6 @@
     <t>ZTERM</t>
   </si>
   <si>
-    <t>NOTE: How is the Terms of Payment Key defined? The sample data includes a random value. I need more details.</t>
-  </si>
-  <si>
     <t>INCO1</t>
   </si>
   <si>
@@ -318,7 +324,10 @@
     <t xml:space="preserve">70    </t>
   </si>
   <si>
-    <t>NOTE: The Supplier ID field in the sample data comes empty — should I leave it as null?</t>
+    <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","CITY1",LIFNR)</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use the city field of the vendor</t>
   </si>
   <si>
     <t>KALKS</t>
@@ -363,13 +372,16 @@
     <t>PARVW</t>
   </si>
   <si>
-    <t>NOTE: could we assign these values randomly — RS, WL, LF, BA?</t>
+    <t>random_partner_function()</t>
+  </si>
+  <si>
+    <t>Custom function that randomly assigns the Partner Function (LF, WL, BA,RS)</t>
   </si>
   <si>
     <t>LIFN2</t>
   </si>
   <si>
-    <t>NOTE: The Inco.Location 1 field in the sample data comes empty — should I leave it as null?</t>
+    <t>supplier_id_from_table("S_SUPPL_GEN", "LIFNR","NAME_FIRST",LIFNR)</t>
   </si>
   <si>
     <t>DEFPA</t>
@@ -387,8 +399,7 @@
     <t>get_bank_country("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
   </si>
   <si>
-    <t xml:space="preserve">Custom function that, based on the supplier’s country, will apply the logic defined in the mapping: Load Bank Country code as US for Banks located in USA and CA for banks located in Canada
-</t>
+    <t>Custom function that, based on the supplier’s country, will assign a country code</t>
   </si>
   <si>
     <t>BANKL</t>
@@ -397,6 +408,12 @@
     <t xml:space="preserve">15    </t>
   </si>
   <si>
+    <t>generate_bank_key(BANKS)</t>
+  </si>
+  <si>
+    <t>Custom function that generates a random Bank Key based on the Supplier’s Country.</t>
+  </si>
+  <si>
     <t>BANKN</t>
   </si>
   <si>
@@ -406,7 +423,7 @@
     <t>get_account_number("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
   </si>
   <si>
-    <t>Custom function that generates a fake account number based on the Supplier's Country</t>
+    <t>Custom function that generates a fake account number based on the Supplier’s Country.</t>
   </si>
   <si>
     <t>IBAN</t>
@@ -418,7 +435,7 @@
     <t>get_iban_number("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
   </si>
   <si>
-    <t>Custom function that generates a fake IBAN number based on the Supplier's Country</t>
+    <t>Custom function that generates a fake IBAN using BANKS, BANKL, and BANKN values.</t>
   </si>
   <si>
     <t>BKONT</t>
@@ -427,25 +444,52 @@
     <t xml:space="preserve">2     </t>
   </si>
   <si>
+    <t>generate_bkont(BANKS)</t>
+  </si>
+  <si>
+    <t>Custom function that generates a sequential account sub-number per Supplier.</t>
+  </si>
+  <si>
     <t>BKREF</t>
   </si>
   <si>
+    <t>generate_bkref(BANKS)</t>
+  </si>
+  <si>
+    <t>Custom function that generates a unique internal reference with a random alphanumeric format.</t>
+  </si>
+  <si>
     <t>KOINH</t>
   </si>
   <si>
+    <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","NAME_FIRST",LIFNR)</t>
+  </si>
+  <si>
+    <t>Custom function that generates a fake account holder name for persons or companies.</t>
+  </si>
+  <si>
     <t>EBPP_ACCNAME</t>
   </si>
   <si>
+    <t>Custom function that generates a fake EBPP account name, similar to KOINH.</t>
+  </si>
+  <si>
     <t>S_SUPPL_TAXNUMBERS</t>
   </si>
   <si>
     <t>TAXTYPE</t>
   </si>
   <si>
+    <t>random_tax_type()</t>
+  </si>
+  <si>
     <t>Note: the sample data includes two categories — "X" and NULL. Should we use them?</t>
   </si>
   <si>
     <t>TAXNUM</t>
+  </si>
+  <si>
+    <t>generate_tax_number()</t>
   </si>
   <si>
     <t>Custom functions that generate random fake tax numbers.</t>
@@ -477,20 +521,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFffff00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -505,32 +544,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFc6c6c6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -538,17 +559,8 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,15 +870,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="79.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="123.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="79.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="123.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -886,7 +898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,11 +914,11 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" hidden="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,11 +934,11 @@
       <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25" hidden="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,16 +949,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25" hidden="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -957,16 +969,16 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25" hidden="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,16 +989,16 @@
         <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25" hidden="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -997,16 +1009,16 @@
         <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,293 +1034,293 @@
       <c r="E8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25" hidden="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="31.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="44.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="4" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="1" t="s">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
+      <c r="A18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1" t="s">
+      <c r="F19" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
+      <c r="A21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="3" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
+      <c r="A23" s="1" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
-      <c r="A22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
-      <c r="A23" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>72</v>
@@ -1317,36 +1329,36 @@
         <v>8</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1357,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1377,72 +1389,74 @@
         <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="F26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>76</v>
@@ -1451,489 +1465,499 @@
         <v>8</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F32" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
+      <c r="A33" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
+      <c r="A34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
+      <c r="A35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
+      <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
+      <c r="A38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
+      <c r="A39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
+      <c r="A40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
+      <c r="A42" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+      <c r="A43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
+      <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="C44" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
-      <c r="A34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
-      <c r="A35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
-      <c r="A36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
-      <c r="A37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
-      <c r="A38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
-      <c r="A39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
-      <c r="A40" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
-      <c r="A41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
-      <c r="A42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
-      <c r="A43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+      <c r="A48" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
-      <c r="A44" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
-      <c r="A45" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
-      <c r="A46" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="2"/>
-      <c r="F46" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
-      <c r="A47" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
-      <c r="A48" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+      <c r="A49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
-      <c r="A49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    </row>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+        <v>125</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
       <c r="A51" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
+      <c r="A52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="2"/>
-      <c r="F51" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
-      <c r="A52" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="B52" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+        <v>140</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1941,81 +1965,91 @@
       <c r="D55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+      <c r="E55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+        <v>32</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+        <v>9</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
       <c r="A59" s="1" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="1" t="s">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="152">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -61,58 +61,58 @@
     <t xml:space="preserve">80    </t>
   </si>
   <si>
+    <t>generate_lifnr_yn01()</t>
+  </si>
+  <si>
+    <t>A custom function that generates random Supplier IDs based on the company name.</t>
+  </si>
+  <si>
+    <t>BU_GROUP</t>
+  </si>
+  <si>
+    <t>default("YNO1")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'YN01'</t>
+  </si>
+  <si>
+    <t>KTOKK</t>
+  </si>
+  <si>
+    <t>default("SUPL")</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'SUPL'</t>
+  </si>
+  <si>
+    <t>NAME_FIRST_P</t>
+  </si>
+  <si>
+    <t>optional_first_name()</t>
+  </si>
+  <si>
+    <t>A custom function that generates random first names. Based on a configurable probability, it may either generate a fake first name or leave it as null.</t>
+  </si>
+  <si>
+    <t>NAME_LAST_P</t>
+  </si>
+  <si>
+    <t>conditional_last_name(FIRST_NAME_P)</t>
+  </si>
+  <si>
+    <t>A custom function that generates random last names. It checks the first name: if it's null, the last name will also be null; otherwise, it generates a last name.</t>
+  </si>
+  <si>
+    <t>BPEXT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20    </t>
+  </si>
+  <si>
     <t>supplier_id_from_name(NAME_FIRST)</t>
   </si>
   <si>
-    <t>A custom function that generates random Supplier IDs based on the company name.</t>
-  </si>
-  <si>
-    <t>BU_GROUP</t>
-  </si>
-  <si>
-    <t>default("YNO1")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default 'YN01'</t>
-  </si>
-  <si>
-    <t>KTOKK</t>
-  </si>
-  <si>
-    <t>default("SUPL")</t>
-  </si>
-  <si>
-    <t>According to Vendor Mapping: Use default 'SUPL'</t>
-  </si>
-  <si>
-    <t>NAME_FIRST_P</t>
-  </si>
-  <si>
-    <t>optional_first_name()</t>
-  </si>
-  <si>
-    <t>A custom function that generates random first names. Based on a configurable probability, it may either generate a fake first name or leave it as null.</t>
-  </si>
-  <si>
-    <t>NAME_LAST_P</t>
-  </si>
-  <si>
-    <t>conditional_last_name(FIRST_NAME_P)</t>
-  </si>
-  <si>
-    <t>A custom function that generates random last names. It checks the first name: if it's null, the last name will also be null; otherwise, it generates a last name.</t>
-  </si>
-  <si>
-    <t>BPEXT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20    </t>
-  </si>
-  <si>
-    <t>copy_value(LIFNR)</t>
-  </si>
-  <si>
-    <t>Same value as the LIFNR, based on the sample data.</t>
+    <t xml:space="preserve">Same value as the LIFNR, based on the sample data </t>
   </si>
   <si>
     <t>STREET</t>
@@ -261,6 +261,9 @@
     <t>AKONT</t>
   </si>
   <si>
+    <t>get_reconciliation_account("S_SUPPL_GEN", "LIFNR","COUNTRY",LIFNR)</t>
+  </si>
+  <si>
     <t>I'm not sure what the expected values look like, and the field descriptions aren't very clear. Could you share a few sample values?</t>
   </si>
   <si>
@@ -318,6 +321,9 @@
     <t xml:space="preserve">70    </t>
   </si>
   <si>
+    <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","CITY1",LIFNR)</t>
+  </si>
+  <si>
     <t>NOTE: The Supplier ID field in the sample data comes empty — should I leave it as null?</t>
   </si>
   <si>
@@ -361,6 +367,9 @@
   </si>
   <si>
     <t>PARVW</t>
+  </si>
+  <si>
+    <t>get_random_partner_function()</t>
   </si>
   <si>
     <t>NOTE: could we assign these values randomly — RS, WL, LF, BA?</t>
@@ -397,7 +406,7 @@
     <t xml:space="preserve">15    </t>
   </si>
   <si>
-    <t/>
+    <t>generate_bank_key(BANKS)</t>
   </si>
   <si>
     <t>BANKN</t>
@@ -430,25 +439,40 @@
     <t xml:space="preserve">2     </t>
   </si>
   <si>
+    <t>generate_bkont(BANKS)</t>
+  </si>
+  <si>
     <t>BKREF</t>
   </si>
   <si>
     <t>KOINH</t>
   </si>
   <si>
+    <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","NAME_FIRST",LIFNR)</t>
+  </si>
+  <si>
     <t>EBPP_ACCNAME</t>
   </si>
   <si>
+    <t>lookup_parent_value("S_SUPPL_GEN", "LIFNR","NAME_FIRST_P",LIFNR)</t>
+  </si>
+  <si>
     <t>S_SUPPL_TAXNUMBERS</t>
   </si>
   <si>
     <t>TAXTYPE</t>
   </si>
   <si>
+    <t>random_tax_type()</t>
+  </si>
+  <si>
     <t>Note: the sample data includes two categories — "X" and NULL. Should we use them?</t>
   </si>
   <si>
     <t>TAXNUM</t>
+  </si>
+  <si>
+    <t>generate_tax_number()</t>
   </si>
   <si>
     <t>Custom functions that generate random fake tax numbers.</t>
@@ -527,7 +551,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -543,9 +567,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -864,15 +885,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="8" width="27.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="8" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="7.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="9.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="79.14785714285713" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="123.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="7" width="27.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="7.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="9.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="8" width="79.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="123.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1192,7 +1213,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1212,7 +1233,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1232,7 +1253,7 @@
         <v>64</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
@@ -1252,7 +1273,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1272,7 +1293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -1292,7 +1313,7 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
         <v>71</v>
       </c>
@@ -1312,7 +1333,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
       <c r="A23" s="1" t="s">
         <v>71</v>
       </c>
@@ -1332,7 +1353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>75</v>
       </c>
@@ -1352,7 +1373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="33">
       <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
@@ -1372,7 +1393,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1385,17 +1406,19 @@
       <c r="D26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
       <c r="A27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1405,15 +1428,15 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1423,12 +1446,12 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1443,12 +1466,12 @@
         <v>60</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="1" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
-      <c r="A30" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>76</v>
@@ -1466,9 +1489,9 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1486,32 +1509,32 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
-      <c r="A33" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1520,18 +1543,18 @@
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1541,15 +1564,15 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -1558,36 +1581,38 @@
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F36" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1596,44 +1621,44 @@
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="F38" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>69</v>
@@ -1642,18 +1667,18 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
       <c r="A40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>69</v>
@@ -1662,38 +1687,38 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
+      <c r="A42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
-      <c r="A42" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>69</v>
@@ -1702,9 +1727,9 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -1722,12 +1747,12 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -1736,36 +1761,38 @@
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+      <c r="A46" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
-      <c r="A46" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="B46" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1773,23 +1800,25 @@
       <c r="D46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="F46" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>69</v>
@@ -1798,9 +1827,9 @@
         <v>70</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
       <c r="A48" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
@@ -1818,9 +1847,9 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -1838,12 +1867,12 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="33">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>8</v>
@@ -1852,96 +1881,98 @@
         <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+      <c r="A51" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
-      <c r="A51" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F54" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1949,17 +1980,19 @@
       <c r="D55" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="F55" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -1967,17 +2000,19 @@
       <c r="D56" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="F56" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -1985,17 +2020,19 @@
       <c r="D57" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="F57" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>8</v>
@@ -2003,17 +2040,19 @@
       <c r="D58" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
+      <c r="E58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2021,9 +2060,11 @@
       <c r="D59" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F59" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -97,7 +97,7 @@
     <t>NAME_LAST_P</t>
   </si>
   <si>
-    <t>conditional_last_name(FIRST_NAME_P)</t>
+    <t>conditional_last_name(NAME_FIRST_P)</t>
   </si>
   <si>
     <t>A custom function that generates random last names. It checks the first name: if it's null, the last name will also be null; otherwise, it generates a last name.</t>

--- a/definitions/vendor.xlsx
+++ b/definitions/vendor.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="153">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -201,7 +201,7 @@
     <t>S_ROLES</t>
   </si>
   <si>
-    <t>foreign_key(S_SUPPL_GEN.LIFNR)</t>
+    <t>foreign_key('S_SUPPL_GEN', 'LIFNR')</t>
   </si>
   <si>
     <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_SUPPL_GEN table.</t>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>S_ADDR_USAGE</t>
+  </si>
+  <si>
+    <t>fk_copy()</t>
   </si>
   <si>
     <t>A Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_SUPPL_GEN table.</t>
@@ -893,7 +896,7 @@
     <col min="6" max="6" style="7" width="123.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18" hidden="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -933,7 +936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18" hidden="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18" hidden="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -973,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18" hidden="1">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -993,7 +996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18" hidden="1">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1013,7 +1016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18" hidden="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18" hidden="1">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18" hidden="1">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,7 +1076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18" hidden="1">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18" hidden="1">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18" hidden="1">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1133,7 +1136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18" hidden="1">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18" hidden="1">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1173,7 +1176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18" hidden="1">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>54</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="46.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18" hidden="1">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="34.5">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18" hidden="1">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18" hidden="1">
       <c r="A20" s="1" t="s">
         <v>66</v>
       </c>
@@ -1287,18 +1290,18 @@
         <v>13</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18" hidden="1">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>8</v>
@@ -1307,15 +1310,15 @@
         <v>13</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>12</v>
@@ -1333,12 +1336,12 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>8</v>
@@ -1347,15 +1350,15 @@
         <v>13</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>12</v>
@@ -1373,32 +1376,32 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18" hidden="1">
+      <c r="A26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>8</v>
@@ -1407,18 +1410,18 @@
         <v>13</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1428,15 +1431,15 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>8</v>
@@ -1446,12 +1449,12 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>12</v>
@@ -1466,15 +1469,15 @@
         <v>60</v>
       </c>
       <c r="F29" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18" hidden="1">
+      <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
-      <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>8</v>
@@ -1483,15 +1486,15 @@
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
@@ -1509,32 +1512,32 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18" hidden="1">
+      <c r="A33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
-      <c r="A33" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B33" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>8</v>
@@ -1543,18 +1546,18 @@
         <v>13</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>8</v>
@@ -1564,15 +1567,15 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>8</v>
@@ -1581,38 +1584,38 @@
         <v>13</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>8</v>
@@ -1621,115 +1624,115 @@
         <v>13</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18" hidden="1">
+      <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="19.5">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="1" t="s">
+      <c r="F38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="19.5">
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F39" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18" hidden="1">
+      <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="19.5">
-      <c r="A40" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="1" t="s">
+      <c r="F40" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18" hidden="1">
+      <c r="A41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18" hidden="1">
+      <c r="A42" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="19.5">
-      <c r="A41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="19.5">
-      <c r="A42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="F42" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="19.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>12</v>
@@ -1747,12 +1750,12 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18" hidden="1">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>8</v>
@@ -1761,18 +1764,18 @@
         <v>13</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F44" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18" hidden="1">
+      <c r="A45" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="19.5">
-      <c r="A45" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="B45" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>8</v>
@@ -1781,18 +1784,18 @@
         <v>13</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="19.5">
+        <v>118</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18" hidden="1">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>8</v>
@@ -1801,35 +1804,35 @@
         <v>13</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="19.5">
+        <v>120</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18" hidden="1">
       <c r="A47" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="19.5">
+        <v>71</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>12</v>
@@ -1847,9 +1850,9 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>12</v>
@@ -1867,112 +1870,112 @@
         <v>61</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="33">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18" hidden="1">
       <c r="A50" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18" hidden="1">
+      <c r="A51" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
-      <c r="A51" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="B51" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18" hidden="1">
       <c r="A52" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18" hidden="1">
       <c r="A53" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18" hidden="1">
       <c r="A54" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18" hidden="1">
       <c r="A55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>8</v>
@@ -1981,18 +1984,18 @@
         <v>29</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18" hidden="1">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>8</v>
@@ -2001,18 +2004,18 @@
         <v>33</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18" hidden="1">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>8</v>
@@ -2021,38 +2024,38 @@
         <v>9</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18" hidden="1">
       <c r="A58" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18" hidden="1">
+      <c r="A59" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
-      <c r="A59" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="B59" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>8</v>
@@ -2061,10 +2064,10 @@
         <v>33</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
